--- a/data/trans_bre/P1408-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1408-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.9039818853837266</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.06864094687079811</v>
+        <v>-0.06864094687079846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2650192762620748</v>
@@ -649,7 +649,7 @@
         <v>-0.6054762953865923</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.05769168030518023</v>
+        <v>-0.05769168030518051</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.377944621003379</v>
+        <v>-2.457735949769805</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9297572827790668</v>
+        <v>-0.9177009630648568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.644835785494869</v>
+        <v>-2.765681728304017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.151624898356529</v>
+        <v>-1.181274748105885</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8013284160219397</v>
+        <v>-0.8336816773730471</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
-      <c r="I5" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.7007191651362221</v>
+        <v>-0.662274199081366</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +688,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.374015583489218</v>
+        <v>1.501702012504574</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9123172756083729</v>
+        <v>0.7129238977535068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3741134909347116</v>
+        <v>0.2283761492799279</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.120094154260966</v>
+        <v>1.083127880783812</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.847366853137318</v>
+        <v>1.516906456765333</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="n">
-        <v>1.375640404412851</v>
-      </c>
+      <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>2.213390055678575</v>
+        <v>2.028154274308553</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +729,7 @@
         <v>0.5654457316173848</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3026851840256989</v>
+        <v>0.3026851840256997</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5842618187634862</v>
@@ -745,7 +741,7 @@
         <v>2.057084695378729</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2539060696867544</v>
+        <v>0.2539060696867551</v>
       </c>
     </row>
     <row r="8">
@@ -756,24 +752,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.954605709236149</v>
+        <v>-4.933181131961517</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.152621726643418</v>
+        <v>-2.972963545494538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.2900252937854544</v>
+        <v>-0.2824729041946179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9251514514921529</v>
+        <v>-1.00553888044435</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8758629411245125</v>
+        <v>-0.8614543233058288</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.6004590741083805</v>
+        <v>-0.5812432476822451</v>
       </c>
     </row>
     <row r="9">
@@ -784,24 +780,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.07252797438094191</v>
+        <v>-0.09037920564126324</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2869953792199287</v>
+        <v>0.2866163854304161</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.946699823681222</v>
+        <v>1.936431849672317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.529771350320722</v>
+        <v>1.580076711381173</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07120530504855296</v>
+        <v>0.1942580299345013</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>2.501534098619951</v>
+        <v>2.464241241236424</v>
       </c>
     </row>
     <row r="10">
@@ -825,7 +821,7 @@
         <v>-2.155848880134552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.095756624607775</v>
+        <v>1.095756624607774</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1744139270997478</v>
@@ -837,7 +833,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3485776956111027</v>
+        <v>0.3485776956111022</v>
       </c>
     </row>
     <row r="11">
@@ -848,26 +844,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.84802200677709</v>
+        <v>-3.961654487675407</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.413248133491266</v>
+        <v>-3.384966883428413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.794676580170879</v>
+        <v>-3.662419099465975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.383187496731328</v>
+        <v>-1.441884538523744</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7023516690480813</v>
+        <v>-0.7336757657536485</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.3673335307378642</v>
+        <v>-0.4014338652386342</v>
       </c>
     </row>
     <row r="12">
@@ -878,26 +874,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.12071470342724</v>
+        <v>3.014393463751588</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3990393857245441</v>
+        <v>0.3915932492518859</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.097888037744767</v>
+        <v>-1.162922900087967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.052882591911234</v>
+        <v>4.039949267596242</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9314427330016387</v>
+        <v>0.9788107673608991</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3604400075105711</v>
+        <v>0.5486980909237633</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.746492266166506</v>
+        <v>1.881426700654838</v>
       </c>
     </row>
     <row r="13">
@@ -944,28 +940,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.207251680033447</v>
+        <v>-3.179835891064487</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.03539935981229</v>
+        <v>-3.917277284587742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.550059024575249</v>
+        <v>-2.673686523055518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.567385173657216</v>
+        <v>-2.604179767278456</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5952026316866782</v>
+        <v>-0.5990122899174325</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9612013234984207</v>
+        <v>-0.9612816711954778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8040393269802814</v>
+        <v>-0.8127323686214043</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6821777271101122</v>
+        <v>-0.6779480689601767</v>
       </c>
     </row>
     <row r="15">
@@ -976,28 +972,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4050437093662244</v>
+        <v>0.2252156932185561</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.635423555305998</v>
+        <v>-1.51901629130293</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.1036617677093562</v>
+        <v>-0.08869608068319593</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.2119289949259726</v>
+        <v>-0.2114130882517076</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1111552729245431</v>
+        <v>0.07173103229256425</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5544192979787667</v>
+        <v>-0.5296976098638775</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.01108910074881446</v>
+        <v>0.008166970767949719</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05125036745896144</v>
+        <v>-0.07506728530472453</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1017,7 @@
         <v>-0.608467074337523</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.09205222769621546</v>
+        <v>-0.09205222769621407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6475520725601126</v>
@@ -1033,7 +1029,7 @@
         <v>-0.2494770646980094</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.0220831147263863</v>
+        <v>-0.02208311472638597</v>
       </c>
     </row>
     <row r="17">
@@ -1044,28 +1040,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.021316245542218</v>
+        <v>-8.292731987188404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.594808095546064</v>
+        <v>-1.585104824307594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.459518889218177</v>
+        <v>-2.189616544798927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.238972028969511</v>
+        <v>-1.995615539738516</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8247285371223267</v>
+        <v>-0.8291501135289587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5001587917930095</v>
+        <v>-0.5053345155555408</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6900959462403509</v>
+        <v>-0.6670896377222861</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4156500297432159</v>
+        <v>-0.384834204722236</v>
       </c>
     </row>
     <row r="18">
@@ -1076,28 +1072,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.980577174070816</v>
+        <v>-1.996313087293651</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.916906702562496</v>
+        <v>1.854192008352468</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8892893863409468</v>
+        <v>0.9228838486478156</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.813667676560416</v>
+        <v>1.919775321695459</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3109299021494956</v>
+        <v>-0.3284325996749565</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.564521210810264</v>
+        <v>1.380008163937315</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5956256157428979</v>
+        <v>0.6142754458233326</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6547496547320871</v>
+        <v>0.6652204629322664</v>
       </c>
     </row>
     <row r="19">
@@ -1146,26 +1142,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.2244892067619699</v>
+        <v>-0.002153390957357034</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.734429839548992</v>
+        <v>0.6829682333036859</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.373009726340371</v>
+        <v>-1.412131589840385</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8694618346214483</v>
+        <v>0.9287189760960984</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1887470893335279</v>
+        <v>-0.04291345284545044</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.6927688533416212</v>
+        <v>-0.6543401760949279</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3921193780374628</v>
+        <v>0.4638136361363633</v>
       </c>
     </row>
     <row r="21">
@@ -1176,19 +1172,19 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.041363718405114</v>
+        <v>3.076984793368494</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.180613763447348</v>
+        <v>2.163898986017965</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.407847540962218</v>
+        <v>1.441177659699556</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.858752806496444</v>
+        <v>2.841789048170624</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>8.258495418924051</v>
+        <v>9.096605926572124</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
@@ -1215,7 +1211,7 @@
         <v>-0.7377689229456381</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.09569937917305073</v>
+        <v>-0.09569937917305038</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.3485501519020489</v>
@@ -1227,7 +1223,7 @@
         <v>-0.375733123254233</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.03774271383905505</v>
+        <v>-0.03774271383905492</v>
       </c>
     </row>
     <row r="23">
@@ -1238,28 +1234,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.22508404634693</v>
+        <v>-2.430104980160185</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.635535652138212</v>
+        <v>-1.559987376987928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.361194831410069</v>
+        <v>-1.354963911534727</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.7172265272327941</v>
+        <v>-0.7761666498242211</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4910641514333531</v>
+        <v>-0.5035995522585051</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6368748780057452</v>
+        <v>-0.6229233956835784</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5907261614386244</v>
+        <v>-0.5783680940712851</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2529665994329457</v>
+        <v>-0.2644945734349416</v>
       </c>
     </row>
     <row r="24">
@@ -1270,28 +1266,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.4940980037410387</v>
+        <v>-0.5897406168398759</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2882919080408167</v>
+        <v>-0.3301352796025524</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.2052057969084593</v>
+        <v>-0.1492122992418008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5869939984072264</v>
+        <v>0.5139601074839721</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1421948037101673</v>
+        <v>-0.1410622623483926</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1772829975828393</v>
+        <v>-0.1750763641308095</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1014556443860591</v>
+        <v>-0.08795623499379704</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2752219490367027</v>
+        <v>0.239133311875484</v>
       </c>
     </row>
     <row r="25">
